--- a/textconv-difftool/hoge foo.xlsx
+++ b/textconv-difftool/hoge foo.xlsx
@@ -143,13 +143,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.91015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -162,6 +162,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/textconv-difftool/hoge foo.xlsx
+++ b/textconv-difftool/hoge foo.xlsx
@@ -146,10 +146,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -163,6 +163,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>4</v>
+      </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>

--- a/textconv-difftool/hoge foo.xlsx
+++ b/textconv-difftool/hoge foo.xlsx
@@ -146,10 +146,10 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -164,7 +164,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
